--- a/data_ckks.xlsx
+++ b/data_ckks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
@@ -31,43 +31,31 @@
     <t>plain_initialization_time</t>
   </si>
   <si>
+    <t>plain_client_size</t>
+  </si>
+  <si>
     <t>plain_client_initialization_ram_cost</t>
   </si>
   <si>
-    <t>credit_amount</t>
-  </si>
-  <si>
-    <t>plain_credit_amount_size</t>
-  </si>
-  <si>
-    <t>new_plain_balance_after_credit</t>
-  </si>
-  <si>
-    <t>new_plain_balance_after_credit_size</t>
-  </si>
-  <si>
-    <t>time_to_compute_plain_credit</t>
-  </si>
-  <si>
-    <t>plain_compute_credit_ram_cost</t>
-  </si>
-  <si>
-    <t>debit_amount</t>
-  </si>
-  <si>
-    <t>plain_debit_amount_size</t>
-  </si>
-  <si>
-    <t>new_plain_balance_after_debit</t>
-  </si>
-  <si>
-    <t>new_plain_balance_after_debit_size</t>
-  </si>
-  <si>
-    <t>plain_compute_debit_ram_cost</t>
-  </si>
-  <si>
-    <t>time_to_compute_plain_debit</t>
+    <t>plain_credit_score</t>
+  </si>
+  <si>
+    <t>plain_credit_score_size</t>
+  </si>
+  <si>
+    <t>plain_credit_score_computation_ram_cost</t>
+  </si>
+  <si>
+    <t>plain_credit_score_computation_time</t>
+  </si>
+  <si>
+    <t>plain_transaction_count_size</t>
+  </si>
+  <si>
+    <t>plain_transaction_count_computation_ram_cost</t>
+  </si>
+  <si>
+    <t>plain_transaction_count_computation_time</t>
   </si>
   <si>
     <t>name_y</t>
@@ -82,73 +70,28 @@
     <t>encrypted_initialization_time</t>
   </si>
   <si>
+    <t>enc_client_size</t>
+  </si>
+  <si>
     <t>HE_size</t>
   </si>
   <si>
-    <t>enc_credit_amount_size</t>
-  </si>
-  <si>
-    <t>new_enc_balance_after_credit_size</t>
-  </si>
-  <si>
-    <t>time_to_compute_enc_credit</t>
-  </si>
-  <si>
-    <t>enc_credit_ram_cost</t>
-  </si>
-  <si>
-    <t>time_to_encrypt_credit</t>
-  </si>
-  <si>
-    <t>enc_compute_credit_ram_cost</t>
-  </si>
-  <si>
-    <t>enc_debit_amount_size</t>
-  </si>
-  <si>
-    <t>new_enc_balance_after_debit_size</t>
-  </si>
-  <si>
-    <t>time_to_compute_enc_debit</t>
-  </si>
-  <si>
-    <t>enc_debit_ram_cost</t>
-  </si>
-  <si>
-    <t>time_to_encrypt_debit</t>
-  </si>
-  <si>
-    <t>enc_compute_debit_ram_cost</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d14fd0, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d15570, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d15de0, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d16330, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d15020, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d16830, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d165b0, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d16560, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f70c1d15ca0, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ckks Pyfhel obj at 0x7f7105eede80, [pk:Y, sk:Y, rtk:Y, rlk:-, contx(n=8192, t=0, sec=128, qi=[60, 30, 30, 30, 60], scale=1073741824.0, )]&gt;</t>
+    <t>enc_credit_score_size</t>
+  </si>
+  <si>
+    <t>enc_credit_score_computation_ram_cost</t>
+  </si>
+  <si>
+    <t>enc_credit_score_computation_time</t>
+  </si>
+  <si>
+    <t>enc_transaction_count_size</t>
+  </si>
+  <si>
+    <t>enc_transaction_count_computation_ram_cost</t>
+  </si>
+  <si>
+    <t>enc_transaction_count_computation_time</t>
   </si>
 </sst>
 </file>
@@ -506,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,1042 +534,745 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>184309</v>
+        <v>323720734195</v>
       </c>
       <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>4.10000211559236E-06</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>6102</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2">
         <v>28</v>
       </c>
-      <c r="E2">
-        <v>4.63599963040906E-06</v>
-      </c>
-      <c r="F2">
-        <v>11518</v>
-      </c>
-      <c r="G2">
-        <v>184498</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>368807</v>
-      </c>
       <c r="J2">
-        <v>28</v>
+        <v>7667</v>
       </c>
       <c r="K2">
-        <v>6.719000339217018E-06</v>
+        <v>1.281299046240747E-05</v>
       </c>
       <c r="L2">
-        <v>3731</v>
+        <v>184</v>
       </c>
       <c r="M2">
-        <v>52018</v>
+        <v>3529</v>
       </c>
       <c r="N2">
-        <v>28</v>
-      </c>
-      <c r="O2">
-        <v>316789</v>
+        <v>9.769864846020937E-07</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>6113</v>
       </c>
       <c r="Q2">
-        <v>3203</v>
+        <v>524401</v>
       </c>
       <c r="R2">
-        <v>4.201000137982192E-06</v>
+        <v>8.950009942054749E-07</v>
+      </c>
+      <c r="S2">
+        <v>56</v>
       </c>
       <c r="T2">
-        <v>5920</v>
+        <v>177</v>
       </c>
       <c r="U2">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V2">
-        <v>8.160000106727239E-07</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
+        <v>6340</v>
+      </c>
+      <c r="W2">
+        <v>0.02425734102143906</v>
       </c>
       <c r="X2">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y2">
-        <v>524401</v>
+        <v>2933</v>
       </c>
       <c r="Z2">
-        <v>0.0003227679999326938</v>
-      </c>
-      <c r="AA2">
-        <v>2365</v>
-      </c>
-      <c r="AB2">
-        <v>0.01385872800028665</v>
-      </c>
-      <c r="AC2">
-        <v>2475</v>
-      </c>
-      <c r="AD2">
-        <v>524401</v>
-      </c>
-      <c r="AE2">
-        <v>524401</v>
-      </c>
-      <c r="AF2">
-        <v>0.0003706439997586131</v>
-      </c>
-      <c r="AG2">
-        <v>2587</v>
-      </c>
-      <c r="AH2">
-        <v>0.01340758699961953</v>
-      </c>
-      <c r="AI2">
-        <v>2483</v>
+        <v>0.0003885190235450864</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>60507</v>
+        <v>243378630469</v>
       </c>
       <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>1.619016984477639E-06</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>3967</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>5.439000233309343E-06</v>
-      </c>
-      <c r="F3">
-        <v>5207</v>
-      </c>
-      <c r="G3">
-        <v>285434</v>
-      </c>
-      <c r="H3">
-        <v>28</v>
-      </c>
-      <c r="I3">
-        <v>345941</v>
-      </c>
       <c r="J3">
-        <v>28</v>
+        <v>2369</v>
       </c>
       <c r="K3">
-        <v>3.539999852364417E-06</v>
+        <v>1.399597385898232E-05</v>
       </c>
       <c r="L3">
-        <v>3017</v>
+        <v>184</v>
       </c>
       <c r="M3">
-        <v>240596</v>
+        <v>2425</v>
       </c>
       <c r="N3">
-        <v>28</v>
-      </c>
-      <c r="O3">
-        <v>105345</v>
+        <v>7.099879439920187E-07</v>
       </c>
       <c r="P3">
-        <v>28</v>
+        <v>5150</v>
       </c>
       <c r="Q3">
-        <v>2905</v>
+        <v>524401</v>
       </c>
       <c r="R3">
-        <v>4.103000264876755E-06</v>
+        <v>7.030030246824026E-07</v>
+      </c>
+      <c r="S3">
+        <v>56</v>
       </c>
       <c r="T3">
-        <v>6477</v>
+        <v>177</v>
       </c>
       <c r="U3">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V3">
-        <v>8.030001481529325E-07</v>
-      </c>
-      <c r="W3" t="s">
-        <v>36</v>
+        <v>4629</v>
+      </c>
+      <c r="W3">
+        <v>0.02039580699056387</v>
       </c>
       <c r="X3">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y3">
-        <v>524401</v>
+        <v>3085</v>
       </c>
       <c r="Z3">
-        <v>0.000313988000016252</v>
-      </c>
-      <c r="AA3">
-        <v>2301</v>
-      </c>
-      <c r="AB3">
-        <v>0.0119914769998104</v>
-      </c>
-      <c r="AC3">
-        <v>2635</v>
-      </c>
-      <c r="AD3">
-        <v>524401</v>
-      </c>
-      <c r="AE3">
-        <v>524401</v>
-      </c>
-      <c r="AF3">
-        <v>0.0003684499997689272</v>
-      </c>
-      <c r="AG3">
-        <v>7764</v>
-      </c>
-      <c r="AH3">
-        <v>0.01271498699998119</v>
-      </c>
-      <c r="AI3">
-        <v>2404</v>
+        <v>0.0005625130143016577</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>280291</v>
+        <v>368434313187</v>
       </c>
       <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>1.728010829538107E-06</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4">
+        <v>4175</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
         <v>28</v>
       </c>
-      <c r="E4">
-        <v>9.310001587437E-07</v>
-      </c>
-      <c r="F4">
-        <v>4824</v>
-      </c>
-      <c r="G4">
-        <v>235212</v>
-      </c>
-      <c r="H4">
-        <v>28</v>
-      </c>
-      <c r="I4">
-        <v>515503</v>
-      </c>
       <c r="J4">
-        <v>28</v>
+        <v>2649</v>
       </c>
       <c r="K4">
-        <v>3.351000032125739E-06</v>
+        <v>1.985899871215224E-05</v>
       </c>
       <c r="L4">
-        <v>7007</v>
+        <v>184</v>
       </c>
       <c r="M4">
-        <v>249891</v>
+        <v>3858</v>
       </c>
       <c r="N4">
-        <v>28</v>
-      </c>
-      <c r="O4">
-        <v>265612</v>
+        <v>1.183012500405312E-06</v>
       </c>
       <c r="P4">
-        <v>28</v>
+        <v>5856</v>
       </c>
       <c r="Q4">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R4">
-        <v>3.637999725469854E-06</v>
+        <v>9.979994501918554E-07</v>
+      </c>
+      <c r="S4">
+        <v>56</v>
       </c>
       <c r="T4">
-        <v>4697</v>
+        <v>177</v>
       </c>
       <c r="U4">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V4">
-        <v>7.829999049135949E-07</v>
-      </c>
-      <c r="W4" t="s">
-        <v>37</v>
+        <v>4981</v>
+      </c>
+      <c r="W4">
+        <v>0.02067785599501804</v>
       </c>
       <c r="X4">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y4">
-        <v>524401</v>
+        <v>2485</v>
       </c>
       <c r="Z4">
-        <v>0.0003495959999781917</v>
-      </c>
-      <c r="AA4">
-        <v>2237</v>
-      </c>
-      <c r="AB4">
-        <v>0.01220668499991007</v>
-      </c>
-      <c r="AC4">
-        <v>2475</v>
-      </c>
-      <c r="AD4">
-        <v>524401</v>
-      </c>
-      <c r="AE4">
-        <v>524401</v>
-      </c>
-      <c r="AF4">
-        <v>0.0004057169999214238</v>
-      </c>
-      <c r="AG4">
-        <v>2299</v>
-      </c>
-      <c r="AH4">
-        <v>0.01254105399993932</v>
-      </c>
-      <c r="AI4">
-        <v>2483</v>
+        <v>0.0005348520062398165</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>134209</v>
+        <v>30265759119</v>
       </c>
       <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>1.478998456150293E-06</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>3943</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>9.479999789618887E-07</v>
-      </c>
-      <c r="F5">
-        <v>4671</v>
-      </c>
-      <c r="G5">
-        <v>251698</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <v>385907</v>
-      </c>
       <c r="J5">
-        <v>28</v>
+        <v>2489</v>
       </c>
       <c r="K5">
-        <v>3.470999672572361E-06</v>
+        <v>1.912398147396743E-05</v>
       </c>
       <c r="L5">
-        <v>2801</v>
+        <v>184</v>
       </c>
       <c r="M5">
-        <v>236729</v>
+        <v>2681</v>
       </c>
       <c r="N5">
-        <v>28</v>
-      </c>
-      <c r="O5">
-        <v>149178</v>
+        <v>1.348002115264535E-06</v>
       </c>
       <c r="P5">
-        <v>28</v>
+        <v>5258</v>
       </c>
       <c r="Q5">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R5">
-        <v>3.300999651401071E-06</v>
+        <v>7.830094546079636E-07</v>
+      </c>
+      <c r="S5">
+        <v>56</v>
       </c>
       <c r="T5">
-        <v>4793</v>
+        <v>177</v>
       </c>
       <c r="U5">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V5">
-        <v>6.250002115848474E-07</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
+        <v>5229</v>
+      </c>
+      <c r="W5">
+        <v>0.0222777120070532</v>
       </c>
       <c r="X5">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y5">
-        <v>524401</v>
+        <v>2421</v>
       </c>
       <c r="Z5">
-        <v>0.0003624749997470644</v>
-      </c>
-      <c r="AA5">
-        <v>2517</v>
-      </c>
-      <c r="AB5">
-        <v>0.01211327300006815</v>
-      </c>
-      <c r="AC5">
-        <v>4504</v>
-      </c>
-      <c r="AD5">
-        <v>524401</v>
-      </c>
-      <c r="AE5">
-        <v>524401</v>
-      </c>
-      <c r="AF5">
-        <v>0.0003885840001203178</v>
-      </c>
-      <c r="AG5">
-        <v>3487</v>
-      </c>
-      <c r="AH5">
-        <v>0.0131440919999477</v>
-      </c>
-      <c r="AI5">
-        <v>2931</v>
+        <v>0.0005434940103441477</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>291505</v>
+        <v>207529300362</v>
       </c>
       <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>1.087988493964076E-06</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>7653</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
         <v>28</v>
       </c>
-      <c r="E6">
-        <v>1.018000148178544E-06</v>
-      </c>
-      <c r="F6">
-        <v>4360</v>
-      </c>
-      <c r="G6">
-        <v>155649</v>
-      </c>
-      <c r="H6">
-        <v>28</v>
-      </c>
-      <c r="I6">
-        <v>447154</v>
-      </c>
       <c r="J6">
-        <v>28</v>
+        <v>2305</v>
       </c>
       <c r="K6">
-        <v>3.279999873484485E-06</v>
+        <v>1.300498843193054E-05</v>
       </c>
       <c r="L6">
-        <v>2833</v>
+        <v>184</v>
       </c>
       <c r="M6">
-        <v>90188</v>
+        <v>2425</v>
       </c>
       <c r="N6">
-        <v>28</v>
-      </c>
-      <c r="O6">
-        <v>356966</v>
+        <v>8.979986887425184E-07</v>
       </c>
       <c r="P6">
-        <v>28</v>
+        <v>9588</v>
       </c>
       <c r="Q6">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R6">
-        <v>3.632999778346857E-06</v>
+        <v>7.849885150790215E-07</v>
+      </c>
+      <c r="S6">
+        <v>56</v>
       </c>
       <c r="T6">
-        <v>4713</v>
+        <v>177</v>
       </c>
       <c r="U6">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V6">
-        <v>1.257999883819139E-06</v>
-      </c>
-      <c r="W6" t="s">
-        <v>39</v>
+        <v>4629</v>
+      </c>
+      <c r="W6">
+        <v>0.02174053600174375</v>
       </c>
       <c r="X6">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y6">
-        <v>524401</v>
+        <v>3918</v>
       </c>
       <c r="Z6">
-        <v>0.0003439990000515536</v>
-      </c>
-      <c r="AA6">
-        <v>6388</v>
-      </c>
-      <c r="AB6">
-        <v>0.01242431099990426</v>
-      </c>
-      <c r="AC6">
-        <v>2411</v>
-      </c>
-      <c r="AD6">
-        <v>524401</v>
-      </c>
-      <c r="AE6">
-        <v>524401</v>
-      </c>
-      <c r="AF6">
-        <v>0.0004002830000899849</v>
-      </c>
-      <c r="AG6">
-        <v>2299</v>
-      </c>
-      <c r="AH6">
-        <v>0.01287800199997946</v>
-      </c>
-      <c r="AI6">
-        <v>2483</v>
+        <v>0.0003825010207947344</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5757</v>
+        <v>404278259768</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>1.139997038990259E-06</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7">
+        <v>3823</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
         <v>28</v>
       </c>
-      <c r="E7">
-        <v>1.277999672311125E-06</v>
-      </c>
-      <c r="F7">
-        <v>4303</v>
-      </c>
-      <c r="G7">
-        <v>235525</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>241282</v>
-      </c>
       <c r="J7">
-        <v>28</v>
+        <v>2201</v>
       </c>
       <c r="K7">
-        <v>3.737000042747241E-06</v>
+        <v>1.671197242103517E-05</v>
       </c>
       <c r="L7">
-        <v>3097</v>
+        <v>184</v>
       </c>
       <c r="M7">
-        <v>22866</v>
+        <v>2337</v>
       </c>
       <c r="N7">
-        <v>28</v>
-      </c>
-      <c r="O7">
-        <v>218416</v>
+        <v>1.509994035586715E-06</v>
       </c>
       <c r="P7">
-        <v>28</v>
+        <v>5996</v>
       </c>
       <c r="Q7">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R7">
-        <v>3.520999598549679E-06</v>
+        <v>9.139766916632652E-07</v>
+      </c>
+      <c r="S7">
+        <v>56</v>
       </c>
       <c r="T7">
-        <v>5133</v>
+        <v>177</v>
       </c>
       <c r="U7">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V7">
-        <v>9.219997991749551E-07</v>
-      </c>
-      <c r="W7" t="s">
-        <v>40</v>
+        <v>6286</v>
+      </c>
+      <c r="W7">
+        <v>0.02123570401454344</v>
       </c>
       <c r="X7">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y7">
-        <v>524401</v>
+        <v>2677</v>
       </c>
       <c r="Z7">
-        <v>0.0003700899997056695</v>
-      </c>
-      <c r="AA7">
-        <v>2237</v>
-      </c>
-      <c r="AB7">
-        <v>0.01243798500036064</v>
-      </c>
-      <c r="AC7">
-        <v>2475</v>
-      </c>
-      <c r="AD7">
-        <v>524401</v>
-      </c>
-      <c r="AE7">
-        <v>524401</v>
-      </c>
-      <c r="AF7">
-        <v>0.0003844160000880947</v>
-      </c>
-      <c r="AG7">
-        <v>2723</v>
-      </c>
-      <c r="AH7">
-        <v>0.01240252500019778</v>
-      </c>
-      <c r="AI7">
-        <v>2483</v>
+        <v>0.0003682190144900233</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>155182</v>
+        <v>492015506905</v>
       </c>
       <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>9.429932106286287E-07</v>
+      </c>
+      <c r="F8">
+        <v>56</v>
+      </c>
+      <c r="G8">
+        <v>3439</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
         <v>28</v>
       </c>
-      <c r="E8">
-        <v>1.286999577132519E-06</v>
-      </c>
-      <c r="F8">
-        <v>4031</v>
-      </c>
-      <c r="G8">
-        <v>105531</v>
-      </c>
-      <c r="H8">
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <v>260713</v>
-      </c>
       <c r="J8">
-        <v>28</v>
+        <v>2281</v>
       </c>
       <c r="K8">
-        <v>3.617999936977867E-06</v>
+        <v>1.22560013551265E-05</v>
       </c>
       <c r="L8">
-        <v>2785</v>
+        <v>184</v>
       </c>
       <c r="M8">
-        <v>142227</v>
+        <v>2394</v>
       </c>
       <c r="N8">
-        <v>28</v>
-      </c>
-      <c r="O8">
-        <v>118486</v>
+        <v>9.420036803930998E-07</v>
       </c>
       <c r="P8">
-        <v>28</v>
+        <v>4585</v>
       </c>
       <c r="Q8">
-        <v>2617</v>
+        <v>524401</v>
       </c>
       <c r="R8">
-        <v>3.750999894691631E-06</v>
+        <v>6.979971658438444E-07</v>
+      </c>
+      <c r="S8">
+        <v>56</v>
       </c>
       <c r="T8">
-        <v>4481</v>
+        <v>177</v>
       </c>
       <c r="U8">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V8">
-        <v>1.031000010698335E-06</v>
-      </c>
-      <c r="W8" t="s">
-        <v>41</v>
+        <v>4789</v>
+      </c>
+      <c r="W8">
+        <v>0.02330857800552621</v>
       </c>
       <c r="X8">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y8">
-        <v>524401</v>
+        <v>6412</v>
       </c>
       <c r="Z8">
-        <v>0.0003649420000328973</v>
-      </c>
-      <c r="AA8">
-        <v>2301</v>
-      </c>
-      <c r="AB8">
-        <v>0.01234819000001153</v>
-      </c>
-      <c r="AC8">
-        <v>2571</v>
-      </c>
-      <c r="AD8">
-        <v>524401</v>
-      </c>
-      <c r="AE8">
-        <v>524401</v>
-      </c>
-      <c r="AF8">
-        <v>0.0004124359998058935</v>
-      </c>
-      <c r="AG8">
-        <v>2404</v>
-      </c>
-      <c r="AH8">
-        <v>0.01234146500019051</v>
-      </c>
-      <c r="AI8">
-        <v>2483</v>
+        <v>0.0003863279998768121</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>181042</v>
+        <v>473452033513</v>
       </c>
       <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1.78598565980792E-06</v>
+      </c>
+      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <v>3463</v>
+      </c>
+      <c r="H9">
+        <v>29</v>
+      </c>
+      <c r="I9">
         <v>28</v>
       </c>
-      <c r="E9">
-        <v>1.513999905000674E-06</v>
-      </c>
-      <c r="F9">
-        <v>3807</v>
-      </c>
-      <c r="G9">
-        <v>206770</v>
-      </c>
-      <c r="H9">
-        <v>28</v>
-      </c>
-      <c r="I9">
-        <v>387812</v>
-      </c>
       <c r="J9">
-        <v>28</v>
+        <v>2249</v>
       </c>
       <c r="K9">
-        <v>4.564999926515156E-06</v>
+        <v>1.678199623711407E-05</v>
       </c>
       <c r="L9">
-        <v>3137</v>
+        <v>184</v>
       </c>
       <c r="M9">
-        <v>128865</v>
+        <v>2337</v>
       </c>
       <c r="N9">
-        <v>28</v>
-      </c>
-      <c r="O9">
-        <v>258947</v>
+        <v>9.040231816470623E-07</v>
       </c>
       <c r="P9">
-        <v>28</v>
+        <v>5528</v>
       </c>
       <c r="Q9">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R9">
-        <v>4.957999863108853E-06</v>
+        <v>2.140994183719158E-06</v>
+      </c>
+      <c r="S9">
+        <v>56</v>
       </c>
       <c r="T9">
-        <v>4924</v>
+        <v>177</v>
       </c>
       <c r="U9">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V9">
-        <v>8.380002327612601E-07</v>
-      </c>
-      <c r="W9" t="s">
-        <v>42</v>
+        <v>4629</v>
+      </c>
+      <c r="W9">
+        <v>0.02128848599386401</v>
       </c>
       <c r="X9">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y9">
-        <v>524401</v>
+        <v>2485</v>
       </c>
       <c r="Z9">
-        <v>0.0003653799999483454</v>
-      </c>
-      <c r="AA9">
-        <v>4107</v>
-      </c>
-      <c r="AB9">
-        <v>0.01243182200005322</v>
-      </c>
-      <c r="AC9">
-        <v>4002</v>
-      </c>
-      <c r="AD9">
-        <v>524401</v>
-      </c>
-      <c r="AE9">
-        <v>524401</v>
-      </c>
-      <c r="AF9">
-        <v>0.0003607710000324005</v>
-      </c>
-      <c r="AG9">
-        <v>2803</v>
-      </c>
-      <c r="AH9">
-        <v>0.01219430799983456</v>
-      </c>
-      <c r="AI9">
-        <v>2972</v>
+        <v>0.0003319069801364094</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>66660</v>
+        <v>312344604318</v>
       </c>
       <c r="D10">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>6.189802661538124E-07</v>
+      </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>3487</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
+      <c r="I10">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>7.2900002123788E-07</v>
-      </c>
-      <c r="F10">
-        <v>3871</v>
-      </c>
-      <c r="G10">
-        <v>113838</v>
-      </c>
-      <c r="H10">
-        <v>28</v>
-      </c>
-      <c r="I10">
-        <v>180498</v>
-      </c>
       <c r="J10">
-        <v>28</v>
+        <v>2409</v>
       </c>
       <c r="K10">
-        <v>2.614000095491065E-06</v>
+        <v>1.178000820800662E-05</v>
       </c>
       <c r="L10">
-        <v>4959</v>
+        <v>184</v>
       </c>
       <c r="M10">
-        <v>272697</v>
+        <v>2842</v>
       </c>
       <c r="N10">
-        <v>28</v>
-      </c>
-      <c r="O10">
-        <v>-92199</v>
+        <v>5.359761416912079E-07</v>
       </c>
       <c r="P10">
-        <v>28</v>
+        <v>4649</v>
       </c>
       <c r="Q10">
-        <v>2745</v>
+        <v>524401</v>
       </c>
       <c r="R10">
-        <v>2.874000074370997E-06</v>
+        <v>9.330105967819691E-07</v>
+      </c>
+      <c r="S10">
+        <v>56</v>
       </c>
       <c r="T10">
-        <v>5763</v>
+        <v>177</v>
       </c>
       <c r="U10">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V10">
-        <v>1.303999852098059E-06</v>
-      </c>
-      <c r="W10" t="s">
-        <v>43</v>
+        <v>5357</v>
+      </c>
+      <c r="W10">
+        <v>0.02370358898770064</v>
       </c>
       <c r="X10">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y10">
-        <v>524401</v>
+        <v>2773</v>
       </c>
       <c r="Z10">
-        <v>0.0004004180000265478</v>
-      </c>
-      <c r="AA10">
-        <v>2397</v>
-      </c>
-      <c r="AB10">
-        <v>0.01247127700025885</v>
-      </c>
-      <c r="AC10">
-        <v>2475</v>
-      </c>
-      <c r="AD10">
-        <v>524401</v>
-      </c>
-      <c r="AE10">
-        <v>524401</v>
-      </c>
-      <c r="AF10">
-        <v>0.0003787050000028103</v>
-      </c>
-      <c r="AG10">
-        <v>2235</v>
-      </c>
-      <c r="AH10">
-        <v>0.01262438100002328</v>
-      </c>
-      <c r="AI10">
-        <v>2643</v>
+        <v>0.0003510660026222467</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>272418</v>
+        <v>60882382932</v>
       </c>
       <c r="D11">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>5.050096660852432E-07</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>3255</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
         <v>28</v>
       </c>
-      <c r="E11">
-        <v>5.339998097042553E-07</v>
-      </c>
-      <c r="F11">
-        <v>3927</v>
-      </c>
-      <c r="G11">
-        <v>181138</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>453556</v>
-      </c>
       <c r="J11">
-        <v>28</v>
+        <v>2505</v>
       </c>
       <c r="K11">
-        <v>3.160000233037863E-06</v>
+        <v>1.16199953481555E-05</v>
       </c>
       <c r="L11">
-        <v>2753</v>
+        <v>184</v>
       </c>
       <c r="M11">
-        <v>228894</v>
+        <v>2425</v>
       </c>
       <c r="N11">
-        <v>28</v>
-      </c>
-      <c r="O11">
-        <v>224662</v>
+        <v>4.360044840723276E-07</v>
       </c>
       <c r="P11">
-        <v>28</v>
+        <v>4594</v>
       </c>
       <c r="Q11">
-        <v>2457</v>
+        <v>524401</v>
       </c>
       <c r="R11">
-        <v>3.077000201301416E-06</v>
+        <v>8.830102160573006E-07</v>
+      </c>
+      <c r="S11">
+        <v>56</v>
       </c>
       <c r="T11">
-        <v>4577</v>
+        <v>177</v>
       </c>
       <c r="U11">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="V11">
-        <v>7.250000635394827E-07</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
+        <v>4693</v>
+      </c>
+      <c r="W11">
+        <v>0.02140766099910252</v>
       </c>
       <c r="X11">
-        <v>524401</v>
+        <v>524417</v>
       </c>
       <c r="Y11">
-        <v>524401</v>
+        <v>2421</v>
       </c>
       <c r="Z11">
-        <v>0.0003348780001033447</v>
-      </c>
-      <c r="AA11">
-        <v>2397</v>
-      </c>
-      <c r="AB11">
-        <v>0.0127471969999533</v>
-      </c>
-      <c r="AC11">
-        <v>2475</v>
-      </c>
-      <c r="AD11">
-        <v>524401</v>
-      </c>
-      <c r="AE11">
-        <v>524401</v>
-      </c>
-      <c r="AF11">
-        <v>0.0003552309999577119</v>
-      </c>
-      <c r="AG11">
-        <v>2724</v>
-      </c>
-      <c r="AH11">
-        <v>0.01242405599987251</v>
-      </c>
-      <c r="AI11">
-        <v>2483</v>
+        <v>0.0003759370010811836</v>
       </c>
     </row>
   </sheetData>
